--- a/Document/Cost Benefit calculations.xlsx
+++ b/Document/Cost Benefit calculations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITRW324\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>PROJECT COST PROFILE</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>TOTAL DEPRECIATION COSTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PROFIT/ </t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -422,12 +425,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -518,6 +536,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,27 +1389,27 @@
         <v>39</v>
       </c>
       <c r="B28" s="10">
-        <f>SUM(B26:B27)</f>
+        <f t="shared" ref="B28:G28" si="5">SUM(B26:B27)</f>
         <v>3675</v>
       </c>
       <c r="C28" s="10">
-        <f>SUM(C26:C27)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="D28" s="10">
-        <f>SUM(D26:D27)</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="E28" s="10">
-        <f>SUM(E26:E27)</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="F28" s="10">
-        <f>SUM(F26:F27)</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="G28" s="10">
-        <f>SUM(G26:G27)</f>
+        <f t="shared" si="5"/>
         <v>4050</v>
       </c>
     </row>
@@ -1407,19 +1431,19 @@
         <v>119375</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" ref="C30:F30" si="5">C9+C16+C22+C28</f>
+        <f t="shared" ref="C30:F30" si="6">C9+C16+C22+C28</f>
         <v>93051</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28988</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27950</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27935</v>
       </c>
       <c r="G30" s="21">
@@ -1442,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,27 +1743,27 @@
         <v>23</v>
       </c>
       <c r="B15" s="10">
-        <f>SUM(B11:B14)</f>
+        <f t="shared" ref="B15:G15" si="2">SUM(B11:B14)</f>
         <v>50600</v>
       </c>
       <c r="C15" s="10">
-        <f>SUM(C11:C14)</f>
+        <f t="shared" si="2"/>
         <v>86370</v>
       </c>
       <c r="D15" s="10">
-        <f>SUM(D11:D14)</f>
+        <f t="shared" si="2"/>
         <v>124075</v>
       </c>
       <c r="E15" s="10">
-        <f>SUM(E11:E14)</f>
+        <f t="shared" si="2"/>
         <v>138000</v>
       </c>
       <c r="F15" s="10">
-        <f>SUM(F11:F14)</f>
+        <f t="shared" si="2"/>
         <v>158320</v>
       </c>
       <c r="G15" s="10">
-        <f>SUM(G11:G14)</f>
+        <f t="shared" si="2"/>
         <v>557365</v>
       </c>
     </row>
@@ -1761,31 +1785,147 @@
         <v>55700</v>
       </c>
       <c r="C17" s="21">
-        <f t="shared" ref="C17:G17" si="2">C7+C15</f>
+        <f t="shared" ref="C17:G17" si="3">C7+C15</f>
         <v>125294</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>227812</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245225</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269760</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>923791</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="21">
+        <v>119375</v>
+      </c>
+      <c r="C21" s="21">
+        <v>93051</v>
+      </c>
+      <c r="D21" s="21">
+        <v>28988</v>
+      </c>
+      <c r="E21" s="21">
+        <v>27950</v>
+      </c>
+      <c r="F21" s="21">
+        <v>27935</v>
+      </c>
+      <c r="G21" s="21">
+        <v>297299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="31">
+        <f>B17</f>
+        <v>55700</v>
+      </c>
+      <c r="C22" s="31">
+        <f t="shared" ref="C22:F22" si="4">C17</f>
+        <v>125294</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="4"/>
+        <v>227812</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="4"/>
+        <v>245225</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" si="4"/>
+        <v>269760</v>
+      </c>
+      <c r="G22" s="31">
+        <f>G17</f>
+        <v>923791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="32">
+        <f>B22-B21</f>
+        <v>-63675</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" ref="C23:G23" si="5">C22-C21</f>
+        <v>32243</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" si="5"/>
+        <v>198824</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="5"/>
+        <v>217275</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="5"/>
+        <v>241825</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" si="5"/>
+        <v>626492</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
